--- a/Dados_cartilha.xlsx
+++ b/Dados_cartilha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Condominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DA3613-DCC2-4EC7-A584-2F298E722932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B0C3D-A1B9-453E-90AC-3870E854152B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
   <si>
     <t>Galpão 1 - Abaixo de Zero - A79B53393</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Depósito G12 - A03L247101</t>
   </si>
   <si>
-    <t>Chácara Colina (Sr° Mario) - A99L488888</t>
-  </si>
-  <si>
     <t>Chácara Colina Fundos - 79B54592</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Dez</t>
   </si>
   <si>
-    <t>Obs: Dados em m3; Data de registro: 29/mês/2024</t>
-  </si>
-  <si>
     <t>Dados em m3</t>
   </si>
   <si>
@@ -191,6 +185,204 @@
   </si>
   <si>
     <t>Residencial</t>
+  </si>
+  <si>
+    <t>Chácara Colina - A99L488888</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Complemento</t>
+  </si>
+  <si>
+    <t>Abaixo de Zero</t>
+  </si>
+  <si>
+    <t>Masp</t>
+  </si>
+  <si>
+    <t>Metal Printing</t>
+  </si>
+  <si>
+    <t>Marcenaria/Serralheria</t>
+  </si>
+  <si>
+    <t>Reservatório</t>
+  </si>
+  <si>
+    <t>Piso Superior e WC térreo</t>
+  </si>
+  <si>
+    <t>Piso Térreo</t>
+  </si>
+  <si>
+    <t>Piso Intermediário</t>
+  </si>
+  <si>
+    <t>Piso Superior</t>
+  </si>
+  <si>
+    <t>Piso Inferior</t>
+  </si>
+  <si>
+    <t>A06L081235</t>
+  </si>
+  <si>
+    <t>Nek Packing</t>
+  </si>
+  <si>
+    <t>Código do registro</t>
+  </si>
+  <si>
+    <t>Fundos</t>
+  </si>
+  <si>
+    <t>R. de Incêncio</t>
+  </si>
+  <si>
+    <t>Sala de Confraternização</t>
+  </si>
+  <si>
+    <t>A031247101</t>
+  </si>
+  <si>
+    <t>A79B53393</t>
+  </si>
+  <si>
+    <t>A99L488883</t>
+  </si>
+  <si>
+    <t>A99L488885</t>
+  </si>
+  <si>
+    <t>A06L135363</t>
+  </si>
+  <si>
+    <t>A06L081233</t>
+  </si>
+  <si>
+    <t>A06L135275</t>
+  </si>
+  <si>
+    <t>A06L135367</t>
+  </si>
+  <si>
+    <t>A09S372865</t>
+  </si>
+  <si>
+    <t>A09S372869</t>
+  </si>
+  <si>
+    <t>A09S372870</t>
+  </si>
+  <si>
+    <t>A79B54592</t>
+  </si>
+  <si>
+    <t>A21H515626</t>
+  </si>
+  <si>
+    <t>A06L081234</t>
+  </si>
+  <si>
+    <t>A03L247101</t>
+  </si>
+  <si>
+    <t>A99L488888</t>
+  </si>
+  <si>
+    <t>79B54592</t>
+  </si>
+  <si>
+    <t>A01L097304</t>
+  </si>
+  <si>
+    <t>A02L273774</t>
+  </si>
+  <si>
+    <t>A03L247100</t>
+  </si>
+  <si>
+    <t>A02L273769</t>
+  </si>
+  <si>
+    <t>A08L186679</t>
+  </si>
+  <si>
+    <t>B12S016596</t>
+  </si>
+  <si>
+    <t>AO9L069981</t>
+  </si>
+  <si>
+    <t>A99L488887</t>
+  </si>
+  <si>
+    <t>A13L080158</t>
+  </si>
+  <si>
+    <t>A13L080153</t>
+  </si>
+  <si>
+    <t>Galpão 1</t>
+  </si>
+  <si>
+    <t>Galpão 2</t>
+  </si>
+  <si>
+    <t>Galpão 3</t>
+  </si>
+  <si>
+    <t>Galpão 4</t>
+  </si>
+  <si>
+    <t>Galpão 5</t>
+  </si>
+  <si>
+    <t>Galpão 6</t>
+  </si>
+  <si>
+    <t>Galpão 7</t>
+  </si>
+  <si>
+    <t>Galpão 8</t>
+  </si>
+  <si>
+    <t>Galpão 9</t>
+  </si>
+  <si>
+    <t>Galpão 10</t>
+  </si>
+  <si>
+    <t>Galpão 11</t>
+  </si>
+  <si>
+    <t>Casa Caseiro</t>
+  </si>
+  <si>
+    <t>Depósito G12</t>
+  </si>
+  <si>
+    <t>Chácara Colina</t>
+  </si>
+  <si>
+    <t>Chácara São José</t>
+  </si>
+  <si>
+    <t>Chácara Manacás</t>
+  </si>
+  <si>
+    <t>Lava-Car</t>
+  </si>
+  <si>
+    <t>Poço 1</t>
+  </si>
+  <si>
+    <t>Poço 2</t>
+  </si>
+  <si>
+    <t>Poço 3</t>
   </si>
 </sst>
 </file>
@@ -200,7 +392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,13 +447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -283,7 +468,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -292,34 +477,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -334,49 +493,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -410,49 +526,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,47 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -567,96 +599,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -670,6 +615,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -721,7 +677,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -729,6 +685,305 @@
       </right>
       <top style="medium">
         <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -739,9 +994,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -749,82 +1004,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -833,104 +1116,92 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -938,11 +1209,33 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{3DFB7883-C2DF-4D0E-8FA7-6205CA304165}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{821A6D9C-7BB2-4F8D-B62C-EA6F8C8FEFB2}"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="38">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -955,6 +1248,92 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -975,13 +1354,19 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="medium">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
           <color rgb="FF000000"/>
@@ -989,6 +1374,32 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1008,9 +1419,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
@@ -1020,91 +1434,10 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
         <vertical/>
-        <horizontal/>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1485,8 +1818,8 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
+        <left style="medium">
+          <color indexed="64"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
@@ -1502,10 +1835,70 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1985,6 +2378,62 @@
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -2050,8 +2499,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF130C45-B9B6-4558-B3D7-223A6D7E97E0}" name="Tabela1" displayName="Tabela1" ref="A1:O30" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4" tableBorderDxfId="17">
-  <autoFilter ref="A1:O30" xr:uid="{AF130C45-B9B6-4558-B3D7-223A6D7E97E0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF130C45-B9B6-4558-B3D7-223A6D7E97E0}" name="Tabela1" displayName="Tabela1" ref="A1:R30" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="A1:R30" xr:uid="{AF130C45-B9B6-4558-B3D7-223A6D7E97E0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2067,31 +2516,37 @@
     <filterColumn colId="12" hiddenButton="1"/>
     <filterColumn colId="13" hiddenButton="1"/>
     <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{7ADC1C86-397E-4F1B-B095-A766C2D44695}" name="Galpões" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{26DCD238-D748-4751-9FF4-2450D77DFBBB}" name="Tipo de imovel" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{39E72EB7-977A-494D-BCAA-2F448B977AB7}" name="Dez anterior" dataDxfId="1" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" xr3:uid="{6720C6FC-9EA7-4BF1-AFEC-5CE4543567E4}" name="Jan" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{101F23DF-A8DA-414A-BF01-0FF3D352257B}" name="Fev" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{CEA938D0-E80E-4CC6-8A7E-F0C09329C039}" name="Mar" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{83B78597-108D-46C3-8E72-972FBF0E05D6}" name="Abr" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{C8CEB38D-6E83-40F0-B67F-1B0F10DB2DB1}" name="Mai" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{6A9E80A5-F5F6-4659-8FE6-E6C16FB60D65}" name="Jun" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{5282ED2D-DB3C-46D3-95FB-EA0FA708D2AB}" name="Jul" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{21718824-7CB8-42E9-913D-32140300453A}" name="Ago" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{A41F5633-5182-4CFD-A084-53D9EB51A2A0}" name="Set" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{F3022D61-C2B3-4E0D-AD11-062FB02B0606}" name="Out" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{DDF30334-C3CA-4362-955A-F1BB543B76AA}" name="Nov" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{860E5DE9-1649-40D2-B750-273A2E13DFBB}" name="Dez" dataDxfId="5"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{7ADC1C86-397E-4F1B-B095-A766C2D44695}" name="Galpões" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{39E72EB7-977A-494D-BCAA-2F448B977AB7}" name="Complemento" dataDxfId="2" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" xr3:uid="{6720C6FC-9EA7-4BF1-AFEC-5CE4543567E4}" name="Código do registro" dataDxfId="1" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" xr3:uid="{101F23DF-A8DA-414A-BF01-0FF3D352257B}" name="Tipo de imovel" dataDxfId="0" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" xr3:uid="{26DCD238-D748-4751-9FF4-2450D77DFBBB}" name="Empresa" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{CEA938D0-E80E-4CC6-8A7E-F0C09329C039}" name="Dez anterior" dataDxfId="3" dataCellStyle="Normal 3"/>
+    <tableColumn id="7" xr3:uid="{83B78597-108D-46C3-8E72-972FBF0E05D6}" name="Jan" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{C8CEB38D-6E83-40F0-B67F-1B0F10DB2DB1}" name="Fev" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{6A9E80A5-F5F6-4659-8FE6-E6C16FB60D65}" name="Mar" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{5282ED2D-DB3C-46D3-95FB-EA0FA708D2AB}" name="Abr" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{21718824-7CB8-42E9-913D-32140300453A}" name="Mai" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{A41F5633-5182-4CFD-A084-53D9EB51A2A0}" name="Jun" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{F3022D61-C2B3-4E0D-AD11-062FB02B0606}" name="Jul" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{DDF30334-C3CA-4362-955A-F1BB543B76AA}" name="Ago" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{860E5DE9-1649-40D2-B750-273A2E13DFBB}" name="Set" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{B5110A54-EBDD-4067-B0F3-87BCC4486255}" name="Out" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{B846FA77-D789-4E2A-A5FB-D41AC8C49ED2}" name="Nov" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{B0E25119-1EAB-4FF1-A81A-B66EC04A4748}" name="Dez" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36CFA557-6B23-48B4-AB71-3F84A61EA800}" name="Tabela2" displayName="Tabela2" ref="A1:M31" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" tableBorderDxfId="31">
-  <autoFilter ref="A1:M31" xr:uid="{36CFA557-6B23-48B4-AB71-3F84A61EA800}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36CFA557-6B23-48B4-AB71-3F84A61EA800}" name="Tabela2" displayName="Tabela2" ref="A1:N30" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
+  <autoFilter ref="A1:N30" xr:uid="{36CFA557-6B23-48B4-AB71-3F84A61EA800}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2105,21 +2560,23 @@
     <filterColumn colId="10" hiddenButton="1"/>
     <filterColumn colId="11" hiddenButton="1"/>
     <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{7DD1D0B9-2757-45AA-8B03-264EAF49E063}" name="Galpões" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{23D7CB58-6D1B-41BF-A7AA-34D8B6555C87}" name="Jan" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{9F95855D-C779-40B8-A650-1803402D1E88}" name="Fev" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{8C84A739-ED85-4497-8992-20575DBF6AC0}" name="Mar" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{5C025139-F06F-4AA3-8DE6-8A7A2862E7CF}" name="Abr" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{753A5056-C534-4D82-A489-CF0ECFEF98B0}" name="Mai" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{A7FC2279-D0C9-4A00-B292-3B457E8EF5AC}" name="Jun" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{DA6BF07E-5338-43F9-B041-1C738AD21A45}" name="Jul" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{69DB0CDF-DAC0-4F5A-BC83-ED4CC444B879}" name="Ago" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{A29DFD0B-3F3F-481E-9212-48A4A3D53A26}" name="Set" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{82925AA3-D1BE-43C6-99FD-5F48F2EA00BC}" name="Out" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{D23FCD6D-62E5-4F05-9A5E-D5AD3C95CD32}" name="Nov" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{AE3AA37F-0946-4A01-ACEA-473F253EFC02}" name="Dez" dataDxfId="18"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{7DD1D0B9-2757-45AA-8B03-264EAF49E063}" name="Galpões" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{23D7CB58-6D1B-41BF-A7AA-34D8B6555C87}" name="Tipo de imovel" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{9F95855D-C779-40B8-A650-1803402D1E88}" name="Jan" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{8C84A739-ED85-4497-8992-20575DBF6AC0}" name="Fev" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{5C025139-F06F-4AA3-8DE6-8A7A2862E7CF}" name="Mar" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{753A5056-C534-4D82-A489-CF0ECFEF98B0}" name="Abr" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{A7FC2279-D0C9-4A00-B292-3B457E8EF5AC}" name="Mai" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{DA6BF07E-5338-43F9-B041-1C738AD21A45}" name="Jun" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{69DB0CDF-DAC0-4F5A-BC83-ED4CC444B879}" name="Jul" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{A29DFD0B-3F3F-481E-9212-48A4A3D53A26}" name="Ago" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{82925AA3-D1BE-43C6-99FD-5F48F2EA00BC}" name="Set" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{D23FCD6D-62E5-4F05-9A5E-D5AD3C95CD32}" name="Out" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{AE3AA37F-0946-4A01-ACEA-473F253EFC02}" name="Nov" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{84CE0D21-D7F9-443A-9D29-ECA4CE534516}" name="Dez" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2413,1057 +2870,1267 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="14" customWidth="1"/>
-    <col min="4" max="8" width="10.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="10.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="53" t="s">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="J1" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="45">
+    </row>
+    <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="69">
         <v>25141.599999999999</v>
       </c>
-      <c r="D2" s="33">
+      <c r="G2" s="52">
         <v>25247.4</v>
       </c>
-      <c r="E2" s="34">
+      <c r="H2" s="53">
         <v>25314.9</v>
       </c>
-      <c r="F2" s="34">
+      <c r="I2" s="53">
         <v>25389.7</v>
       </c>
-      <c r="G2" s="35">
+      <c r="J2" s="53">
         <v>25443.5</v>
       </c>
-      <c r="H2" s="35">
+      <c r="K2" s="53">
         <v>25518.5</v>
       </c>
-      <c r="I2" s="35">
+      <c r="L2" s="53">
         <v>25587.1</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="52"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="46">
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="59"/>
+    </row>
+    <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="70">
         <v>10289.209999999999</v>
       </c>
-      <c r="D3" s="36">
+      <c r="G3" s="55">
         <v>10327.120000000001</v>
       </c>
-      <c r="E3" s="37">
+      <c r="H3" s="23">
         <v>10364.16</v>
       </c>
-      <c r="F3" s="37">
+      <c r="I3" s="23">
         <v>10408.98</v>
       </c>
-      <c r="G3" s="36">
+      <c r="J3" s="23">
         <v>10452.049999999999</v>
       </c>
-      <c r="H3" s="36">
+      <c r="K3" s="23">
         <v>10495.76</v>
       </c>
-      <c r="I3" s="36">
+      <c r="L3" s="23">
         <v>10543.63</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="46">
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="60"/>
+    </row>
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="70">
         <v>9442.32</v>
       </c>
-      <c r="D4" s="36">
+      <c r="G4" s="55">
         <v>9442.32</v>
       </c>
-      <c r="E4" s="37">
+      <c r="H4" s="23">
         <v>9442.33</v>
       </c>
-      <c r="F4" s="36">
+      <c r="I4" s="23">
         <v>9442.33</v>
       </c>
-      <c r="G4" s="36">
+      <c r="J4" s="23">
         <v>9442.33</v>
       </c>
-      <c r="H4" s="36">
+      <c r="K4" s="23">
         <v>9442.33</v>
       </c>
-      <c r="I4" s="36">
+      <c r="L4" s="23">
         <v>9442.33</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="38"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="46">
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="60"/>
+    </row>
+    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="70">
         <v>10284.81</v>
       </c>
-      <c r="D5" s="36">
+      <c r="G5" s="55">
         <v>10327.17</v>
       </c>
-      <c r="E5" s="36">
+      <c r="H5" s="23">
         <v>10374.33</v>
       </c>
-      <c r="F5" s="36">
+      <c r="I5" s="23">
         <v>10415.94</v>
       </c>
-      <c r="G5" s="36">
+      <c r="J5" s="23">
         <v>10473.540000000001</v>
       </c>
-      <c r="H5" s="36">
+      <c r="K5" s="23">
         <v>10528.49</v>
       </c>
-      <c r="I5" s="36">
+      <c r="L5" s="23">
         <v>10571.48</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="38"/>
-    </row>
-    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="46">
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="60"/>
+    </row>
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="70">
         <v>1698.38</v>
       </c>
-      <c r="D6" s="36">
+      <c r="G6" s="55">
         <v>1700.74</v>
       </c>
-      <c r="E6" s="36">
+      <c r="H6" s="23">
         <v>1703.7</v>
       </c>
-      <c r="F6" s="36">
+      <c r="I6" s="23">
         <v>1706.42</v>
       </c>
-      <c r="G6" s="36">
+      <c r="J6" s="23">
         <v>1708.82</v>
       </c>
-      <c r="H6" s="36">
+      <c r="K6" s="23">
         <v>1712.07</v>
       </c>
-      <c r="I6" s="36">
+      <c r="L6" s="23">
         <v>1715.39</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="38"/>
-    </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="46">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="60"/>
+    </row>
+    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="70">
         <v>4633.29</v>
       </c>
-      <c r="D7" s="36">
+      <c r="G7" s="55">
         <v>4633.29</v>
       </c>
-      <c r="E7" s="36">
+      <c r="H7" s="23">
         <v>4633.3</v>
       </c>
-      <c r="F7" s="36">
+      <c r="I7" s="23">
         <v>4648.79</v>
       </c>
-      <c r="G7" s="36">
+      <c r="J7" s="23">
         <v>4648.8</v>
       </c>
-      <c r="H7" s="36">
+      <c r="K7" s="23">
         <v>4648.8</v>
       </c>
-      <c r="I7" s="36">
+      <c r="L7" s="23">
         <v>4653.8</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="46">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="60"/>
+    </row>
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="70">
         <v>197.37</v>
       </c>
-      <c r="D8" s="36">
+      <c r="G8" s="55">
         <v>198.1</v>
       </c>
-      <c r="E8" s="36">
+      <c r="H8" s="23">
         <v>200.21</v>
       </c>
-      <c r="F8" s="36">
+      <c r="I8" s="23">
         <v>200.96</v>
       </c>
-      <c r="G8" s="36">
+      <c r="J8" s="23">
         <v>202.7</v>
       </c>
-      <c r="H8" s="36">
+      <c r="K8" s="23">
         <v>204.05</v>
       </c>
-      <c r="I8" s="36">
+      <c r="L8" s="23">
         <v>204.72</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="38"/>
-    </row>
-    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="46">
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="60"/>
+    </row>
+    <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="70">
         <v>385.2</v>
       </c>
-      <c r="D9" s="36">
+      <c r="G9" s="55">
         <v>385.21</v>
       </c>
-      <c r="E9" s="36">
+      <c r="H9" s="23">
         <v>385.21</v>
       </c>
-      <c r="F9" s="36">
+      <c r="I9" s="23">
         <v>385.22</v>
       </c>
-      <c r="G9" s="36">
+      <c r="J9" s="23">
         <v>385.23</v>
       </c>
-      <c r="H9" s="36">
+      <c r="K9" s="23">
         <v>385.23</v>
       </c>
-      <c r="I9" s="36">
+      <c r="L9" s="23">
         <v>385.23</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="38"/>
-    </row>
-    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="46">
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="60"/>
+    </row>
+    <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="70">
         <v>4138.9399999999996</v>
       </c>
-      <c r="D10" s="36">
+      <c r="G10" s="55">
         <v>4138.99</v>
       </c>
-      <c r="E10" s="36">
+      <c r="H10" s="23">
         <v>4139</v>
       </c>
-      <c r="F10" s="36">
+      <c r="I10" s="23">
         <v>4139.13</v>
       </c>
-      <c r="G10" s="36">
+      <c r="J10" s="23">
         <v>4139.1400000000003</v>
       </c>
-      <c r="H10" s="36">
+      <c r="K10" s="23">
         <v>4139.2299999999996</v>
       </c>
-      <c r="I10" s="36">
+      <c r="L10" s="23">
         <v>4139.25</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="38"/>
-    </row>
-    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="46">
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="60"/>
+    </row>
+    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="70">
         <v>30.52</v>
       </c>
-      <c r="D11" s="36">
+      <c r="G11" s="55">
         <v>30.52</v>
       </c>
-      <c r="E11" s="36">
+      <c r="H11" s="23">
         <v>30.52</v>
       </c>
-      <c r="F11" s="40">
+      <c r="I11" s="23">
         <v>30.52</v>
       </c>
-      <c r="G11" s="36">
+      <c r="J11" s="23">
         <v>30.52</v>
       </c>
-      <c r="H11" s="36">
+      <c r="K11" s="23">
         <v>30.52</v>
       </c>
-      <c r="I11" s="36">
+      <c r="L11" s="23">
         <v>30.52</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="38"/>
-    </row>
-    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="46">
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="60"/>
+    </row>
+    <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="70">
         <v>3102.31</v>
       </c>
-      <c r="D12" s="36">
+      <c r="G12" s="55">
         <v>3102.31</v>
       </c>
-      <c r="E12" s="36">
+      <c r="H12" s="23">
         <v>3104.46</v>
       </c>
-      <c r="F12" s="36">
+      <c r="I12" s="23">
         <v>3104.48</v>
       </c>
-      <c r="G12" s="36">
+      <c r="J12" s="23">
         <v>3106.7</v>
       </c>
-      <c r="H12" s="36">
+      <c r="K12" s="23">
         <v>3107.35</v>
       </c>
-      <c r="I12" s="36">
+      <c r="L12" s="23">
         <v>3108.54</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="38"/>
-    </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="46">
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="60"/>
+    </row>
+    <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="70">
         <v>33.85</v>
       </c>
-      <c r="D13" s="36">
+      <c r="G13" s="55">
         <v>33.85</v>
       </c>
-      <c r="E13" s="36">
+      <c r="H13" s="23">
         <v>34.270000000000003</v>
       </c>
-      <c r="F13" s="36">
+      <c r="I13" s="23">
         <v>34.409999999999997</v>
       </c>
-      <c r="G13" s="36">
+      <c r="J13" s="23">
         <v>34.409999999999997</v>
       </c>
-      <c r="H13" s="36">
+      <c r="K13" s="23">
         <v>34.51</v>
       </c>
-      <c r="I13" s="36">
+      <c r="L13" s="23">
         <v>34.51</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="38"/>
-    </row>
-    <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="46">
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="60"/>
+    </row>
+    <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="70">
         <v>369.93</v>
       </c>
-      <c r="D14" s="36">
+      <c r="G14" s="55">
         <v>373.52</v>
       </c>
-      <c r="E14" s="36">
+      <c r="H14" s="23">
         <v>377.1</v>
       </c>
-      <c r="F14" s="36">
+      <c r="I14" s="23">
         <v>381.87</v>
       </c>
-      <c r="G14" s="36">
+      <c r="J14" s="23">
         <v>385.85</v>
       </c>
-      <c r="H14" s="36">
+      <c r="K14" s="23">
         <v>390.7</v>
       </c>
-      <c r="I14" s="36">
+      <c r="L14" s="23">
         <v>394.71</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="38"/>
-    </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="46">
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="60"/>
+    </row>
+    <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="70">
         <v>788.8</v>
       </c>
-      <c r="D15" s="36">
+      <c r="G15" s="55">
         <v>790.1</v>
       </c>
-      <c r="E15" s="36">
+      <c r="H15" s="23">
         <v>790.1</v>
       </c>
-      <c r="F15" s="36">
+      <c r="I15" s="23">
         <v>791.1</v>
       </c>
-      <c r="G15" s="36">
+      <c r="J15" s="23">
         <v>791.1</v>
       </c>
-      <c r="H15" s="36">
+      <c r="K15" s="23">
         <v>791.1</v>
       </c>
-      <c r="I15" s="36">
+      <c r="L15" s="23">
         <v>791.6</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="38"/>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="46">
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="60"/>
+    </row>
+    <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="70">
         <v>1.68</v>
       </c>
-      <c r="D16" s="36">
+      <c r="G16" s="55">
         <v>1.68</v>
       </c>
-      <c r="E16" s="36">
+      <c r="H16" s="23">
         <v>1.68</v>
       </c>
-      <c r="F16" s="36">
+      <c r="I16" s="23">
         <v>1.68</v>
       </c>
-      <c r="G16" s="36">
+      <c r="J16" s="23">
         <v>1.68</v>
       </c>
-      <c r="H16" s="36">
+      <c r="K16" s="23">
         <v>1.68</v>
       </c>
-      <c r="I16" s="36">
+      <c r="L16" s="23">
         <v>1.68</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="38"/>
-    </row>
-    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="46">
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="60"/>
+    </row>
+    <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="70">
         <v>1407.75</v>
       </c>
-      <c r="D17" s="36">
+      <c r="G17" s="55">
         <v>1432.4</v>
       </c>
-      <c r="E17" s="36">
+      <c r="H17" s="23">
         <v>1459.14</v>
       </c>
-      <c r="F17" s="36">
+      <c r="I17" s="23">
         <v>1476.36</v>
       </c>
-      <c r="G17" s="36">
+      <c r="J17" s="23">
         <v>1497.26</v>
       </c>
-      <c r="H17" s="36">
+      <c r="K17" s="23">
         <v>1517.41</v>
       </c>
-      <c r="I17" s="36">
+      <c r="L17" s="23">
         <v>1542.71</v>
       </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="38"/>
-    </row>
-    <row r="18" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="46">
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="60"/>
+    </row>
+    <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="70">
         <v>124.6</v>
       </c>
-      <c r="D18" s="36">
+      <c r="G18" s="55">
         <v>124.94</v>
       </c>
-      <c r="E18" s="36">
+      <c r="H18" s="23">
         <v>124.99</v>
       </c>
-      <c r="F18" s="36">
+      <c r="I18" s="23">
         <v>125.1</v>
       </c>
-      <c r="G18" s="36">
+      <c r="J18" s="23">
         <v>125.31</v>
       </c>
-      <c r="H18" s="36">
+      <c r="K18" s="23">
         <v>127.03</v>
       </c>
-      <c r="I18" s="36">
+      <c r="L18" s="23">
         <v>130.24</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="38"/>
-    </row>
-    <row r="19" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="60"/>
+    </row>
+    <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="46">
+      <c r="B19" s="65"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="70">
         <v>16.309999999999999</v>
       </c>
-      <c r="D19" s="36">
+      <c r="G19" s="55">
         <v>16.309999999999999</v>
       </c>
-      <c r="E19" s="36">
+      <c r="H19" s="23">
         <v>16.309999999999999</v>
       </c>
-      <c r="F19" s="36">
+      <c r="I19" s="23">
         <v>17.38</v>
       </c>
-      <c r="G19" s="36">
+      <c r="J19" s="23">
         <v>21.55</v>
       </c>
-      <c r="H19" s="36">
+      <c r="K19" s="23">
         <v>47.65</v>
       </c>
-      <c r="I19" s="36">
+      <c r="L19" s="23">
         <v>57.07</v>
       </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="38"/>
-    </row>
-    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="46">
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="60"/>
+    </row>
+    <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="70">
         <v>1377.77</v>
       </c>
-      <c r="D20" s="36">
+      <c r="G20" s="55">
         <v>1385.93</v>
       </c>
-      <c r="E20" s="36">
+      <c r="H20" s="23">
         <v>1398.55</v>
       </c>
-      <c r="F20" s="36">
+      <c r="I20" s="23">
         <v>1391.14</v>
       </c>
-      <c r="G20" s="36">
+      <c r="J20" s="23">
         <v>1393.12</v>
       </c>
-      <c r="H20" s="36">
+      <c r="K20" s="23">
         <v>1400.92</v>
       </c>
-      <c r="I20" s="36">
+      <c r="L20" s="23">
         <v>1405.11</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="38"/>
-    </row>
-    <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="46">
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="60"/>
+    </row>
+    <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="70">
         <v>649.66999999999996</v>
       </c>
-      <c r="D21" s="36">
+      <c r="G21" s="55">
         <v>649.66999999999996</v>
       </c>
-      <c r="E21" s="36">
+      <c r="H21" s="23">
         <v>649.66999999999996</v>
       </c>
-      <c r="F21" s="36">
+      <c r="I21" s="23">
         <v>649.66999999999996</v>
       </c>
-      <c r="G21" s="36">
+      <c r="J21" s="23">
         <v>649.66999999999996</v>
       </c>
-      <c r="H21" s="36">
+      <c r="K21" s="23">
         <v>649.66999999999996</v>
       </c>
-      <c r="I21" s="36">
+      <c r="L21" s="23">
         <v>649.66999999999996</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="38"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="46">
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="60"/>
+    </row>
+    <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="70">
         <v>4625.6400000000003</v>
       </c>
-      <c r="D22" s="36">
+      <c r="G22" s="55">
         <v>4632.3599999999997</v>
       </c>
-      <c r="E22" s="36">
+      <c r="H22" s="23">
         <v>4650.3999999999996</v>
       </c>
-      <c r="F22" s="36">
+      <c r="I22" s="23">
         <v>4661.29</v>
       </c>
-      <c r="G22" s="36">
+      <c r="J22" s="23">
         <v>4672.45</v>
       </c>
-      <c r="H22" s="36">
+      <c r="K22" s="23">
         <v>4682.45</v>
       </c>
-      <c r="I22" s="36">
+      <c r="L22" s="23">
         <v>4690.8999999999996</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="38"/>
-    </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="46">
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="60"/>
+    </row>
+    <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="60"/>
+    </row>
+    <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="70">
         <v>4370.43</v>
       </c>
-      <c r="D24" s="36">
+      <c r="G24" s="55">
         <v>4371.1899999999996</v>
       </c>
-      <c r="E24" s="40">
+      <c r="H24" s="24">
         <v>4384.3900000000003</v>
       </c>
-      <c r="F24" s="40">
+      <c r="I24" s="23">
         <v>4411.1899999999996</v>
       </c>
-      <c r="G24" s="36">
+      <c r="J24" s="23">
         <v>4428.71</v>
       </c>
-      <c r="H24" s="36">
+      <c r="K24" s="23">
         <v>4448.74</v>
       </c>
-      <c r="I24" s="40">
+      <c r="L24" s="23">
         <v>4464.78</v>
       </c>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="38"/>
-    </row>
-    <row r="25" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="46">
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="60"/>
+    </row>
+    <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="70">
         <v>5560.31</v>
       </c>
-      <c r="D25" s="36">
+      <c r="G25" s="55">
         <v>5603.77</v>
       </c>
-      <c r="E25" s="36">
+      <c r="H25" s="23">
         <v>5651.15</v>
       </c>
-      <c r="F25" s="36">
+      <c r="I25" s="23">
         <v>5669.39</v>
       </c>
-      <c r="G25" s="36">
+      <c r="J25" s="23">
         <v>5678.47</v>
       </c>
-      <c r="H25" s="36">
+      <c r="K25" s="23">
         <v>5692.42</v>
       </c>
-      <c r="I25" s="36">
+      <c r="L25" s="23">
         <v>5696.88</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="38"/>
-    </row>
-    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="46">
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="60"/>
+    </row>
+    <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="70">
         <v>846.46</v>
       </c>
-      <c r="D26" s="36">
+      <c r="G26" s="55">
         <v>847.25</v>
       </c>
-      <c r="E26" s="36">
+      <c r="H26" s="23">
         <v>847.32</v>
       </c>
-      <c r="F26" s="36">
+      <c r="I26" s="23">
         <v>848.11</v>
       </c>
-      <c r="G26" s="36">
+      <c r="J26" s="23">
         <v>848.16</v>
       </c>
-      <c r="H26" s="36">
+      <c r="K26" s="23">
         <v>848.66</v>
       </c>
-      <c r="I26" s="36">
+      <c r="L26" s="23">
         <v>848.67</v>
       </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="38"/>
-    </row>
-    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="46">
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="60"/>
+    </row>
+    <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="70">
         <v>1149.4100000000001</v>
       </c>
-      <c r="D27" s="41">
+      <c r="G27" s="55">
         <v>1149.4100000000001</v>
       </c>
-      <c r="E27" s="36">
+      <c r="H27" s="23">
         <v>1149.4100000000001</v>
       </c>
-      <c r="F27" s="36">
+      <c r="I27" s="23">
         <v>1149.4100000000001</v>
       </c>
-      <c r="G27" s="36">
+      <c r="J27" s="23">
         <v>1149.47</v>
       </c>
-      <c r="H27" s="36">
+      <c r="K27" s="23">
         <v>1149.47</v>
       </c>
-      <c r="I27" s="36">
+      <c r="L27" s="23">
         <v>1149.47</v>
       </c>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="38"/>
-    </row>
-    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="46">
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="60"/>
+    </row>
+    <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="65"/>
+      <c r="C28" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="70">
         <v>9974.73</v>
       </c>
-      <c r="D28" s="41">
+      <c r="G28" s="55">
         <v>10327.290000000001</v>
       </c>
-      <c r="E28" s="41">
+      <c r="H28" s="25">
         <v>10638.01</v>
       </c>
-      <c r="F28" s="36">
+      <c r="I28" s="23">
         <v>10916.24</v>
       </c>
-      <c r="G28" s="36">
+      <c r="J28" s="23">
         <v>11214.91</v>
       </c>
-      <c r="H28" s="36">
+      <c r="K28" s="23">
         <v>11538.53</v>
       </c>
-      <c r="I28" s="36">
+      <c r="L28" s="23">
         <v>11765.09</v>
       </c>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="38"/>
-    </row>
-    <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="46">
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="60"/>
+    </row>
+    <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="70">
         <v>1267.6300000000001</v>
       </c>
-      <c r="D29" s="36">
+      <c r="G29" s="55">
         <v>1298.47</v>
       </c>
-      <c r="E29" s="41">
+      <c r="H29" s="25">
         <v>1328.02</v>
       </c>
-      <c r="F29" s="36">
+      <c r="I29" s="23">
         <v>1365.01</v>
       </c>
-      <c r="G29" s="36">
+      <c r="J29" s="23">
         <v>1370.01</v>
       </c>
-      <c r="H29" s="36">
+      <c r="K29" s="23">
         <v>1406.79</v>
       </c>
-      <c r="I29" s="36">
+      <c r="L29" s="23">
         <v>1491.85</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="38"/>
-    </row>
-    <row r="30" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="47">
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="60"/>
+    </row>
+    <row r="30" spans="1:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="63"/>
+      <c r="F30" s="71">
         <v>2887.08</v>
       </c>
-      <c r="D30" s="42">
+      <c r="G30" s="56">
         <v>2887.08</v>
       </c>
-      <c r="E30" s="42">
+      <c r="H30" s="57">
         <v>2887.08</v>
       </c>
-      <c r="F30" s="43">
+      <c r="I30" s="57">
         <v>2887.08</v>
       </c>
-      <c r="G30" s="43">
+      <c r="J30" s="57">
         <v>2887.08</v>
       </c>
-      <c r="H30" s="43">
+      <c r="K30" s="57">
         <v>2887.08</v>
       </c>
-      <c r="I30" s="43">
+      <c r="L30" s="57">
         <v>2887.08</v>
       </c>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="44"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="61"/>
+    </row>
+    <row r="36" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="8"/>
+    </row>
+    <row r="40" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3480,16 +4147,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
@@ -3502,556 +4169,645 @@
     <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="61" t="s">
+    <row r="1" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="F1" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="39"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="B4" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="B5" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="B6" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="B8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="B9" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="B10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="B11" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="B12" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="B13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="B14" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="B15" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="B16" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="B17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="B18" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="B19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="B20" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="B21" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="B23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="B24" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="B25" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="B26" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="B27" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="B28" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="B29" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="27"/>
-    </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="27"/>
+      <c r="B30" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="20"/>
+    </row>
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4070,7 +4826,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4083,119 +4839,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="33">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="13">
+        <v>51.04</v>
+      </c>
+      <c r="E2" s="13">
+        <v>25.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>10</v>
+      </c>
+      <c r="B3" s="33">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="13">
+        <v>6.05</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3.54</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>20</v>
+      </c>
+      <c r="B4" s="33">
         <v>50</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
-        <v>0</v>
-      </c>
-      <c r="B2" s="63">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="19">
-        <v>51.04</v>
-      </c>
-      <c r="E2" s="19">
-        <v>25.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="19">
-        <v>6.05</v>
-      </c>
-      <c r="E3" s="19">
-        <v>3.54</v>
-      </c>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>20</v>
-      </c>
-      <c r="B4" s="63">
+      <c r="D4" s="13">
+        <v>9.76</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>50</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="19">
-        <v>9.76</v>
-      </c>
-      <c r="E4" s="19">
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>50</v>
-      </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="19">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13">
         <v>11.46</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="13">
         <v>6.51</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="11"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="11"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="11"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="11"/>
+      <c r="C13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4218,12 +4974,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
